--- a/resource/fileApus/ApusPresResumen0011.xlsx
+++ b/resource/fileApus/ApusPresResumen0011.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>ANALISIS DE PRECIOS UNITARIOS</t>
   </si>
@@ -89,7 +89,7 @@
  B</t>
   </si>
   <si>
-    <t>Carpintero Categoria D2</t>
+    <t>Fierrero Categoria D2</t>
   </si>
   <si>
     <t>-- SUBTOTAL (N)</t>
@@ -131,6 +131,10 @@
   <si>
     <t>PRECIO
  C</t>
+  </si>
+  <si>
+    <t>COSTO
+ D=AxBxC</t>
   </si>
   <si>
     <t xml:space="preserve">Transporte </t>
@@ -323,7 +327,7 @@
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D4"/>
@@ -380,7 +384,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>25061.89</v>
+        <v>136.47</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -435,7 +439,7 @@
         <f>SUM(D11*E11)</f>
       </c>
       <c r="G11" t="n" s="9">
-        <v>0.2</v>
+        <v>2.0</v>
       </c>
       <c r="H11" s="9">
         <f>SUM(F11*G11)</f>
@@ -492,7 +496,7 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="n" s="9">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E15" t="n" s="9">
         <v>3.55</v>
@@ -501,7 +505,7 @@
         <f>SUM(D15*E15)</f>
       </c>
       <c r="G15" t="n" s="9">
-        <v>0.2</v>
+        <v>2.0</v>
       </c>
       <c r="H15" s="9">
         <f>SUM(F15*G15)</f>
@@ -560,7 +564,7 @@
         <v>30</v>
       </c>
       <c r="F19" t="n" s="9">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G19" t="n" s="9">
         <v>3.48</v>
@@ -598,42 +602,46 @@
         <v>13</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="3" t="s">
-        <v>37</v>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="n" s="9">
+        <v>20.0</v>
       </c>
       <c r="F23" t="n" s="9">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>36.0</v>
+        <v>2.0</v>
       </c>
       <c r="H23" s="9">
-        <f>SUM(F23*G23)</f>
+        <f>SUM(E23*F23*G23)</f>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -649,7 +657,7 @@
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -659,12 +667,12 @@
     </row>
     <row r="26">
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="11" t="n">
@@ -679,7 +687,7 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="11" t="n">
@@ -694,7 +702,7 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -704,12 +712,12 @@
     </row>
     <row r="29">
       <c r="B29" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -739,8 +747,8 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="E26:F26"/>
